--- a/Windows/Individuele Documentatie/Jens/Windows PowerShell 3.0 Step by Step Cheatsheet.xlsx
+++ b/Windows/Individuele Documentatie/Jens/Windows PowerShell 3.0 Step by Step Cheatsheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>CheatSheet Windows PowerShell 3.0</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Dit geeft een lijst van aliases weer, waar "Get-ChildItem" in de definitie vernoemd staat.</t>
+  </si>
+  <si>
+    <t>Get-PSProviders</t>
+  </si>
+  <si>
+    <t>Geeft een lijst weer van alle providers</t>
+  </si>
+  <si>
+    <t>cert:\</t>
+  </si>
+  <si>
+    <t>Zet je locatie naar de certificaat PS drive</t>
   </si>
 </sst>
 </file>
@@ -567,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +826,25 @@
       </c>
       <c r="C23" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Windows/Individuele Documentatie/Jens/Windows PowerShell 3.0 Step by Step Cheatsheet.xlsx
+++ b/Windows/Individuele Documentatie/Jens/Windows PowerShell 3.0 Step by Step Cheatsheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>CheatSheet Windows PowerShell 3.0</t>
   </si>
@@ -208,6 +208,13 @@
   </si>
   <si>
     <t>Zet je locatie naar de certificaat PS drive</t>
+  </si>
+  <si>
+    <t>Get-Help * -Parameter computername | sort name | ft name, synopsis -auto -wrap</t>
+  </si>
+  <si>
+    <t>Dit commando levert een lijst van alle
+cmdlets die native ondersteuning voor remoting hebben</t>
   </si>
 </sst>
 </file>
@@ -266,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -278,6 +285,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -579,16 +589,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="45" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -847,7 +857,19 @@
         <v>63</v>
       </c>
     </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Windows/Individuele Documentatie/Jens/Windows PowerShell 3.0 Step by Step Cheatsheet.xlsx
+++ b/Windows/Individuele Documentatie/Jens/Windows PowerShell 3.0 Step by Step Cheatsheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>CheatSheet Windows PowerShell 3.0</t>
   </si>
@@ -215,6 +215,54 @@
   <si>
     <t>Dit commando levert een lijst van alle
 cmdlets die native ondersteuning voor remoting hebben</t>
+  </si>
+  <si>
+    <t>Start-Transcript</t>
+  </si>
+  <si>
+    <t>Enter-PSSession</t>
+  </si>
+  <si>
+    <t>-Computername &lt;computer&gt;</t>
+  </si>
+  <si>
+    <t>Start een eenvoudige remote acces naar de computer. De prompt zal veranderen naar de naam van de computer.</t>
+  </si>
+  <si>
+    <t>!Zeer Nuttig! Wanneer je dit commando uitvoert, zullen alle commando's die hierna worden uitgevoerd, worden lokaal opgeslagen in een tekstbestand. Opmerking: stop deze functie door gebruik te maken van het commando Stop-transcript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoke-Command </t>
+  </si>
+  <si>
+    <t>Als je slechts 1 commando moet uitvoeren op een remote machine, dan maak je gebruik van dit commando</t>
+  </si>
+  <si>
+    <t>Get-ExecutionPolicy</t>
+  </si>
+  <si>
+    <t>-List</t>
+  </si>
+  <si>
+    <t>Geeft een lijst weer van de executionpolicy voor elke scope</t>
+  </si>
+  <si>
+    <t>Variabelen</t>
+  </si>
+  <si>
+    <t>ForEach-Object, and Switch.</t>
+  </si>
+  <si>
+    <t>$^</t>
+  </si>
+  <si>
+    <t>This contains the first token of the last line input into the shell.</t>
+  </si>
+  <si>
+    <t>This contains the last token of the last line input into the shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the current pipeline object; it’s used in script blocks, filters, Where-Object, </t>
   </si>
 </sst>
 </file>
@@ -273,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -288,6 +336,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -589,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,6 +913,75 @@
       <c r="B26" s="5"/>
       <c r="C26" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Windows/Individuele Documentatie/Jens/Windows PowerShell 3.0 Step by Step Cheatsheet.xlsx
+++ b/Windows/Individuele Documentatie/Jens/Windows PowerShell 3.0 Step by Step Cheatsheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>CheatSheet Windows PowerShell 3.0</t>
   </si>
@@ -247,22 +247,19 @@
     <t>Geeft een lijst weer van de executionpolicy voor elke scope</t>
   </si>
   <si>
-    <t>Variabelen</t>
-  </si>
-  <si>
-    <t>ForEach-Object, and Switch.</t>
-  </si>
-  <si>
-    <t>$^</t>
-  </si>
-  <si>
-    <t>This contains the first token of the last line input into the shell.</t>
-  </si>
-  <si>
-    <t>This contains the last token of the last line input into the shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is the current pipeline object; it’s used in script blocks, filters, Where-Object, </t>
+    <t>Read-Host</t>
+  </si>
+  <si>
+    <t>Vraagt input van de gebruiker. Opmerking: het werkwoord Read gaat dus geen bestand lezen</t>
+  </si>
+  <si>
+    <t>Get-TextStatistics</t>
+  </si>
+  <si>
+    <t>"C\test.txt"</t>
+  </si>
+  <si>
+    <t>Geeft content van het bestand test.txt</t>
   </si>
 </sst>
 </file>
@@ -333,10 +330,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -638,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,10 +904,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3" t="s">
         <v>65</v>
       </c>
@@ -935,7 +932,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -946,7 +943,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -956,32 +953,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="C31" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Windows/Individuele Documentatie/Jens/Windows PowerShell 3.0 Step by Step Cheatsheet.xlsx
+++ b/Windows/Individuele Documentatie/Jens/Windows PowerShell 3.0 Step by Step Cheatsheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>CheatSheet Windows PowerShell 3.0</t>
   </si>
@@ -27,18 +27,12 @@
     <t>Uitleg</t>
   </si>
   <si>
-    <t>dir</t>
-  </si>
-  <si>
     <t>bootcfg</t>
   </si>
   <si>
     <t>Get-Date</t>
   </si>
   <si>
-    <t>Verander van directory naar c:\</t>
-  </si>
-  <si>
     <t>Geeft een lijst weer van alle bestanden in C:\</t>
   </si>
   <si>
@@ -66,12 +60,6 @@
     <t>geef de huidige datum</t>
   </si>
   <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> c:\</t>
-  </si>
-  <si>
     <t xml:space="preserve">md </t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>typeperf</t>
   </si>
   <si>
-    <t>"\memory\available bytes</t>
-  </si>
-  <si>
     <t xml:space="preserve">fsutil file createnew </t>
   </si>
   <si>
@@ -123,9 +108,6 @@
     <t>-property name, length</t>
   </si>
   <si>
-    <t>Get-ChildItem C:\ | Format-List</t>
-  </si>
-  <si>
     <t>Een mooi geformatteerde lijst van de output van het commando Get-ChildItem. In de lijst wordt via het argument, enkel de naam en lengte weergegeven</t>
   </si>
   <si>
@@ -156,9 +138,6 @@
     <t>Maakt een nieuwe alias van Get-Help. De verkorte versie van dit commando is dan gh.</t>
   </si>
   <si>
-    <t>Get-Process | Out-GridView</t>
-  </si>
-  <si>
     <t>Geeft een tabelview van de output van Get-Process.</t>
   </si>
   <si>
@@ -171,15 +150,9 @@
     <t>-verb se*</t>
   </si>
   <si>
-    <t>Hier wordt een lijst teruggegeven van commando's die beginnen met "se" en die werkwoorden zijn.</t>
-  </si>
-  <si>
     <t>-noun o*</t>
   </si>
   <si>
-    <t>Hier wordt een lijst teruggegeven van commando's die beginnen met een "o" en die een zelfstandignaamwoord zijn.</t>
-  </si>
-  <si>
     <t>Show-Command</t>
   </si>
   <si>
@@ -189,15 +162,6 @@
     <t>Dit is een gelijkaardig commando als Get-Command. Alleen worden nu de commando's in een grafische tabel weergegeven van 500px hoogte en 350px breedte.</t>
   </si>
   <si>
-    <t xml:space="preserve">Get-Alias | Where definition </t>
-  </si>
-  <si>
-    <t>-match "Get-ChildItem"</t>
-  </si>
-  <si>
-    <t>Dit geeft een lijst van aliases weer, waar "Get-ChildItem" in de definitie vernoemd staat.</t>
-  </si>
-  <si>
     <t>Get-PSProviders</t>
   </si>
   <si>
@@ -208,9 +172,6 @@
   </si>
   <si>
     <t>Zet je locatie naar de certificaat PS drive</t>
-  </si>
-  <si>
-    <t>Get-Help * -Parameter computername | sort name | ft name, synopsis -auto -wrap</t>
   </si>
   <si>
     <t>Dit commando levert een lijst van alle
@@ -256,17 +217,74 @@
     <t>Get-TextStatistics</t>
   </si>
   <si>
-    <t>"C\test.txt"</t>
-  </si>
-  <si>
     <t>Geeft content van het bestand test.txt</t>
+  </si>
+  <si>
+    <t>clear-host (cls)</t>
+  </si>
+  <si>
+    <t>Dit commando maakt het scherm volledig leeg</t>
+  </si>
+  <si>
+    <t>Get-Childitem (dir, ls)</t>
+  </si>
+  <si>
+    <t>Get-Content (cat)</t>
+  </si>
+  <si>
+    <t>Dit toont de inhoud van een bestand</t>
+  </si>
+  <si>
+    <t>Get-service</t>
+  </si>
+  <si>
+    <t>geeft je een lijst van alle services die draaien op het systeem</t>
+  </si>
+  <si>
+    <t>Set-Location (cd)</t>
+  </si>
+  <si>
+    <t>c:\</t>
+  </si>
+  <si>
+    <t>Met dit commando kan je naar een andere locatie gaan op je pc (als argument kan je hier de directory waar naartoe invoegen, in ons geval c:\)</t>
+  </si>
+  <si>
+    <t>`Get-ChildItem C:\ | Format-List`</t>
+  </si>
+  <si>
+    <t>`-match "Get-ChildItem"`</t>
+  </si>
+  <si>
+    <t>`Get-Alias | Where definition `</t>
+  </si>
+  <si>
+    <t>`Get-Process | Out-GridView `</t>
+  </si>
+  <si>
+    <t>`Get-Help * -Parameter computername | sort name | ft name, synopsis -auto -wrap`</t>
+  </si>
+  <si>
+    <t>`"C\test.txt"`</t>
+  </si>
+  <si>
+    <t>Dit geeft een lijst van aliases weer, waar `"Get-ChildItem"` in de definitie vernoemd staat.</t>
+  </si>
+  <si>
+    <t>`\memory\available bytes`</t>
+  </si>
+  <si>
+    <t>Hier wordt een lijst teruggegeven van commando's die beginnen met een **o** en die een zelfstandignaamwoord zijn.</t>
+  </si>
+  <si>
+    <t>Hier wordt een lijst teruggegeven van commando's die beginnen met **se** en die werkwoorden zijn.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,12 +309,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -329,10 +341,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="A2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,323 +669,354 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A26:B26"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
